--- a/Assets/RawData/ShopDBSheet.xlsx
+++ b/Assets/RawData/ShopDBSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\부트캠프\최종프로젝트 조\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E997F2B-AF73-460A-A92C-82D12CAEF621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8855C1A0-F157-423B-9437-B1705FC99309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8EBC5D0-9542-4C42-8E14-1599A7B7C731}"/>
+    <workbookView xWindow="3645" yWindow="1500" windowWidth="22500" windowHeight="14100" xr2:uid="{A8EBC5D0-9542-4C42-8E14-1599A7B7C731}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,21 @@
   <si>
     <t>상점 아이템 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_item6</t>
+  </si>
+  <si>
+    <t>_item7</t>
+  </si>
+  <si>
+    <t>_item8</t>
+  </si>
+  <si>
+    <t>_item9</t>
+  </si>
+  <si>
+    <t>_item10</t>
   </si>
 </sst>
 </file>
@@ -191,9 +206,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}" name="표1" displayName="표1" ref="A1:G2" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}" name="표1" displayName="표1" ref="A1:L2" totalsRowShown="0">
+  <autoFilter ref="A1:L2" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{110181A3-7F14-4BC9-91AF-D3FB116D1618}" name="_id"/>
     <tableColumn id="2" xr3:uid="{019FBB62-F3C4-4F8A-AB4D-9B2DE9F76A2D}" name="_shopName"/>
     <tableColumn id="3" xr3:uid="{E3892241-2611-4639-A21D-6A761F908415}" name="_item1"/>
@@ -201,6 +216,11 @@
     <tableColumn id="5" xr3:uid="{614C7592-49A1-4B5E-83E9-76A01564944E}" name="_item3"/>
     <tableColumn id="6" xr3:uid="{2BF2BA80-2495-4CB8-B58C-F461A8CD2882}" name="_item4"/>
     <tableColumn id="7" xr3:uid="{0A85E6BE-D244-4439-86EE-794BD11D63E8}" name="_item5"/>
+    <tableColumn id="8" xr3:uid="{3ADA5513-CE53-474A-A34C-9F95D5C6E406}" name="_item6"/>
+    <tableColumn id="9" xr3:uid="{0A70180C-B954-468A-9D87-F915B9F37E5F}" name="_item7"/>
+    <tableColumn id="10" xr3:uid="{6FB7F722-AD60-4D47-8420-2C3946232579}" name="_item8"/>
+    <tableColumn id="11" xr3:uid="{6B4DCA70-38A2-45FE-8F5F-AE765C0F8E6A}" name="_item9"/>
+    <tableColumn id="12" xr3:uid="{447CE25A-3F2B-4864-AA5B-B36352071B53}" name="_item10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -523,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815B3B67-2129-4A54-8FFC-3350E6A8D114}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D20" sqref="A18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,9 +554,12 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +581,23 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -570,6 +608,30 @@
         <v>20000001</v>
       </c>
       <c r="D2">
+        <v>20000002</v>
+      </c>
+      <c r="E2">
+        <v>20000002</v>
+      </c>
+      <c r="F2">
+        <v>20000002</v>
+      </c>
+      <c r="G2">
+        <v>20000002</v>
+      </c>
+      <c r="H2">
+        <v>20000002</v>
+      </c>
+      <c r="I2">
+        <v>20000002</v>
+      </c>
+      <c r="J2">
+        <v>20000002</v>
+      </c>
+      <c r="K2">
+        <v>20000002</v>
+      </c>
+      <c r="L2">
         <v>20000002</v>
       </c>
     </row>

--- a/Assets/RawData/ShopDBSheet.xlsx
+++ b/Assets/RawData/ShopDBSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8855C1A0-F157-423B-9437-B1705FC99309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EE514B-628F-4383-A034-E366249584E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="1500" windowWidth="22500" windowHeight="14100" xr2:uid="{A8EBC5D0-9542-4C42-8E14-1599A7B7C731}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8EBC5D0-9542-4C42-8E14-1599A7B7C731}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Table" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="A18:D20"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,28 +611,13 @@
         <v>20000002</v>
       </c>
       <c r="E2">
-        <v>20000002</v>
+        <v>20000003</v>
       </c>
       <c r="F2">
-        <v>20000002</v>
+        <v>20000004</v>
       </c>
       <c r="G2">
-        <v>20000002</v>
-      </c>
-      <c r="H2">
-        <v>20000002</v>
-      </c>
-      <c r="I2">
-        <v>20000002</v>
-      </c>
-      <c r="J2">
-        <v>20000002</v>
-      </c>
-      <c r="K2">
-        <v>20000002</v>
-      </c>
-      <c r="L2">
-        <v>20000002</v>
+        <v>20000005</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/ShopDBSheet.xlsx
+++ b/Assets/RawData/ShopDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EE514B-628F-4383-A034-E366249584E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C012F171-D3C1-4FBB-8B48-2D11F5C3DC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8EBC5D0-9542-4C42-8E14-1599A7B7C731}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,33 @@
   </si>
   <si>
     <t>_item10</t>
+  </si>
+  <si>
+    <t>_item11</t>
+  </si>
+  <si>
+    <t>_item12</t>
+  </si>
+  <si>
+    <t>_item13</t>
+  </si>
+  <si>
+    <t>_item14</t>
+  </si>
+  <si>
+    <t>_item15</t>
+  </si>
+  <si>
+    <t>_item16</t>
+  </si>
+  <si>
+    <t>_item17</t>
+  </si>
+  <si>
+    <t>_item18</t>
+  </si>
+  <si>
+    <t>_item19</t>
   </si>
 </sst>
 </file>
@@ -206,9 +233,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}" name="표1" displayName="표1" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}" name="표1" displayName="표1" ref="A1:U2" totalsRowShown="0">
+  <autoFilter ref="A1:U2" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}"/>
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{110181A3-7F14-4BC9-91AF-D3FB116D1618}" name="_id"/>
     <tableColumn id="2" xr3:uid="{019FBB62-F3C4-4F8A-AB4D-9B2DE9F76A2D}" name="_shopName"/>
     <tableColumn id="3" xr3:uid="{E3892241-2611-4639-A21D-6A761F908415}" name="_item1"/>
@@ -221,6 +248,15 @@
     <tableColumn id="10" xr3:uid="{6FB7F722-AD60-4D47-8420-2C3946232579}" name="_item8"/>
     <tableColumn id="11" xr3:uid="{6B4DCA70-38A2-45FE-8F5F-AE765C0F8E6A}" name="_item9"/>
     <tableColumn id="12" xr3:uid="{447CE25A-3F2B-4864-AA5B-B36352071B53}" name="_item10"/>
+    <tableColumn id="13" xr3:uid="{75D7862D-54E9-425D-B4C1-1D0C473B970F}" name="_item11"/>
+    <tableColumn id="14" xr3:uid="{1CC96E4F-679C-45A0-885B-C242783A17C1}" name="_item12"/>
+    <tableColumn id="15" xr3:uid="{0FFED506-CD65-409C-B5E1-D64BCA896DF1}" name="_item13"/>
+    <tableColumn id="16" xr3:uid="{922173B0-5595-4A98-8D04-B30A9AF36DDC}" name="_item14"/>
+    <tableColumn id="17" xr3:uid="{89B9DBEA-134A-4C6F-B5F8-1E2D6C712443}" name="_item15"/>
+    <tableColumn id="18" xr3:uid="{F22B24D1-08A4-4010-B629-C3CB9541517C}" name="_item16"/>
+    <tableColumn id="19" xr3:uid="{0F505D2F-2689-421E-8B67-C5B83A679603}" name="_item17"/>
+    <tableColumn id="20" xr3:uid="{AE4AF082-2F46-43AA-BD6F-7E2D932BBFCF}" name="_item18"/>
+    <tableColumn id="21" xr3:uid="{AC5E9336-7A33-4DE5-90D9-7153BEAB0DFF}" name="_item19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -543,23 +579,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815B3B67-2129-4A54-8FFC-3350E6A8D114}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="21" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,8 +629,35 @@
       <c r="L1" t="s">
         <v>22</v>
       </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -618,6 +678,48 @@
       </c>
       <c r="G2">
         <v>20000005</v>
+      </c>
+      <c r="H2">
+        <v>10000001</v>
+      </c>
+      <c r="I2">
+        <v>10000002</v>
+      </c>
+      <c r="J2">
+        <v>10000003</v>
+      </c>
+      <c r="K2">
+        <v>10000004</v>
+      </c>
+      <c r="L2">
+        <v>10000005</v>
+      </c>
+      <c r="M2">
+        <v>10000006</v>
+      </c>
+      <c r="N2">
+        <v>10000007</v>
+      </c>
+      <c r="O2">
+        <v>30000001</v>
+      </c>
+      <c r="P2">
+        <v>30000002</v>
+      </c>
+      <c r="Q2">
+        <v>30000003</v>
+      </c>
+      <c r="R2">
+        <v>30000004</v>
+      </c>
+      <c r="S2">
+        <v>30000005</v>
+      </c>
+      <c r="T2">
+        <v>30000006</v>
+      </c>
+      <c r="U2">
+        <v>30000007</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/ShopDBSheet.xlsx
+++ b/Assets/RawData/ShopDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C012F171-D3C1-4FBB-8B48-2D11F5C3DC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3F1224-B9C4-405B-8165-2C24E53DD4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8EBC5D0-9542-4C42-8E14-1599A7B7C731}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,15 +139,6 @@
   </si>
   <si>
     <t>_item16</t>
-  </si>
-  <si>
-    <t>_item17</t>
-  </si>
-  <si>
-    <t>_item18</t>
-  </si>
-  <si>
-    <t>_item19</t>
   </si>
 </sst>
 </file>
@@ -233,9 +224,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}" name="표1" displayName="표1" ref="A1:U2" totalsRowShown="0">
-  <autoFilter ref="A1:U2" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}" name="표1" displayName="표1" ref="A1:R2" totalsRowShown="0">
+  <autoFilter ref="A1:R2" xr:uid="{6CB7F374-DEC3-4F4F-A066-948FA8347467}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{110181A3-7F14-4BC9-91AF-D3FB116D1618}" name="_id"/>
     <tableColumn id="2" xr3:uid="{019FBB62-F3C4-4F8A-AB4D-9B2DE9F76A2D}" name="_shopName"/>
     <tableColumn id="3" xr3:uid="{E3892241-2611-4639-A21D-6A761F908415}" name="_item1"/>
@@ -254,9 +245,6 @@
     <tableColumn id="16" xr3:uid="{922173B0-5595-4A98-8D04-B30A9AF36DDC}" name="_item14"/>
     <tableColumn id="17" xr3:uid="{89B9DBEA-134A-4C6F-B5F8-1E2D6C712443}" name="_item15"/>
     <tableColumn id="18" xr3:uid="{F22B24D1-08A4-4010-B629-C3CB9541517C}" name="_item16"/>
-    <tableColumn id="19" xr3:uid="{0F505D2F-2689-421E-8B67-C5B83A679603}" name="_item17"/>
-    <tableColumn id="20" xr3:uid="{AE4AF082-2F46-43AA-BD6F-7E2D932BBFCF}" name="_item18"/>
-    <tableColumn id="21" xr3:uid="{AC5E9336-7A33-4DE5-90D9-7153BEAB0DFF}" name="_item19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -579,20 +567,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815B3B67-2129-4A54-8FFC-3350E6A8D114}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="21" width="11.625" customWidth="1"/>
+    <col min="3" max="18" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,17 +635,8 @@
       <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -668,57 +647,48 @@
         <v>20000001</v>
       </c>
       <c r="D2">
-        <v>20000002</v>
+        <v>20000003</v>
       </c>
       <c r="E2">
-        <v>20000003</v>
+        <v>10000001</v>
       </c>
       <c r="F2">
-        <v>20000004</v>
+        <v>10000002</v>
       </c>
       <c r="G2">
-        <v>20000005</v>
+        <v>10000003</v>
       </c>
       <c r="H2">
-        <v>10000001</v>
+        <v>10000004</v>
       </c>
       <c r="I2">
-        <v>10000002</v>
+        <v>10000005</v>
       </c>
       <c r="J2">
-        <v>10000003</v>
+        <v>10000006</v>
       </c>
       <c r="K2">
-        <v>10000004</v>
+        <v>10000007</v>
       </c>
       <c r="L2">
-        <v>10000005</v>
+        <v>30000001</v>
       </c>
       <c r="M2">
-        <v>10000006</v>
+        <v>30000002</v>
       </c>
       <c r="N2">
-        <v>10000007</v>
+        <v>30000003</v>
       </c>
       <c r="O2">
-        <v>30000001</v>
+        <v>30000004</v>
       </c>
       <c r="P2">
-        <v>30000002</v>
+        <v>30000005</v>
       </c>
       <c r="Q2">
-        <v>30000003</v>
+        <v>30000006</v>
       </c>
       <c r="R2">
-        <v>30000004</v>
-      </c>
-      <c r="S2">
-        <v>30000005</v>
-      </c>
-      <c r="T2">
-        <v>30000006</v>
-      </c>
-      <c r="U2">
         <v>30000007</v>
       </c>
     </row>
